--- a/data/trans_dic/P21B_R2-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P21B_R2-Clase-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.2389762387270053</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.1505928190902287</v>
+        <v>0.1505928190902288</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.06298808086449953</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.0241644614080941</v>
+        <v>0.02340592153242313</v>
       </c>
       <c r="D5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.05447539796749705</v>
+        <v>0.05179042645595298</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1339517157295086</v>
+        <v>0.1228358415830426</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.01391484715847104</v>
+        <v>0.0142392222730071</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.0905146742445397</v>
+        <v>0.09404645011832499</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1461115374078891</v>
+        <v>0.149921679440544</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.09838716532943</v>
+        <v>0.1036013350045356</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.02878210080689037</v>
+        <v>0.03119923107666347</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.06667095752533304</v>
+        <v>0.06879514482175306</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.120158296828999</v>
+        <v>0.1181565930075855</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1292614626869598</v>
+        <v>0.1291467482157481</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.14029768520095</v>
+        <v>0.1423937212149927</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1249969252581022</v>
+        <v>0.1170542406032201</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2179401645374292</v>
+        <v>0.2060052310037374</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2752777001944628</v>
+        <v>0.263304998611836</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1405064633257136</v>
+        <v>0.1348783242377876</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.2803570634408281</v>
+        <v>0.2767145407534649</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.3534145836869212</v>
+        <v>0.3545202810044372</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2206503932463854</v>
+        <v>0.2197220047845471</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1109718606040496</v>
+        <v>0.1154458772849639</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1834178012902314</v>
+        <v>0.1800786104325912</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.249052536129932</v>
+        <v>0.2511306300282984</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.2226905901059665</v>
+        <v>0.2270477632266404</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.0430028813679941</v>
+        <v>0.0435927705084581</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.05471183124195417</v>
+        <v>0.05257768706595397</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1039670793713462</v>
+        <v>0.1064123070611642</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.06444279430015289</v>
+        <v>0.06261105044546712</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.02470008356667154</v>
+        <v>0.0270097326732137</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.0102371747988933</v>
+        <v>0.0101620852959995</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.07847678323504763</v>
+        <v>0.08111246323091845</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.110247148156974</v>
+        <v>0.1096108345809253</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.04463077297112854</v>
+        <v>0.04715393767123054</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.03599637821049436</v>
+        <v>0.03227742933860388</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.1085149908294523</v>
+        <v>0.1088905803212492</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1048452929348577</v>
+        <v>0.1047826566548882</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.231501533577149</v>
+        <v>0.2364753632538334</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2274645025909793</v>
+        <v>0.2057883657301877</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.342681931687605</v>
+        <v>0.3483257840167225</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2097673006206771</v>
+        <v>0.2101955581459538</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1448697869928004</v>
+        <v>0.1580496475379587</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.08468596725588096</v>
+        <v>0.09063087771384251</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.2535086078942836</v>
+        <v>0.2541253472493886</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2261419744651335</v>
+        <v>0.2273316684733252</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1504535788714486</v>
+        <v>0.1545231892902323</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.1276210296131444</v>
+        <v>0.1222876574455217</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.2494325490177859</v>
+        <v>0.245187032093338</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.198105891247351</v>
+        <v>0.1949196031324041</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.1036760287501189</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.05783695858588354</v>
+        <v>0.05783695858588352</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.02615621858431736</v>
@@ -969,7 +969,7 @@
         <v>0.06118520533376732</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.0635482174037684</v>
+        <v>0.06354821740376841</v>
       </c>
     </row>
     <row r="11">
@@ -986,10 +986,10 @@
         <v>0</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.01245599408832313</v>
+        <v>0.01266712158511893</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.02400754382567176</v>
+        <v>0.02802689523769235</v>
       </c>
       <c r="G11" s="5" t="n">
         <v>0</v>
@@ -998,22 +998,22 @@
         <v>0</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.03053423430633945</v>
+        <v>0.030860573384399</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.02154725843503601</v>
+        <v>0.02256396404120019</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.006947537740484085</v>
+        <v>0.00693613039361723</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.004398594089174442</v>
+        <v>0.004407537448158352</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.02559805281478765</v>
+        <v>0.02186604876707915</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.03473620364533157</v>
+        <v>0.03277637295316246</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.06525189860940542</v>
+        <v>0.06848247679457245</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.03216069440067805</v>
+        <v>0.03108147326811422</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1261911592102325</v>
+        <v>0.1241479100627147</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1371039882465609</v>
+        <v>0.1348232506277654</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1409668424891459</v>
+        <v>0.1336983710568087</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1252480382435619</v>
+        <v>0.1140956451206546</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.2570825111960339</v>
+        <v>0.2730639673994489</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.12394377367727</v>
+        <v>0.1353507982263721</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.06012664449539776</v>
+        <v>0.05778106231650447</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.04237214575116465</v>
+        <v>0.03787629802371752</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.1216954316402661</v>
+        <v>0.125546481083232</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1157057534489879</v>
+        <v>0.120243455124061</v>
       </c>
     </row>
     <row r="13">
@@ -1105,7 +1105,7 @@
         <v>0.04508791543663282</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.03678409683426639</v>
+        <v>0.03678409683426641</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.008231083900554718</v>
+        <v>0.00857150153928867</v>
       </c>
       <c r="D14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.01108341020278486</v>
+        <v>0.01086782505941503</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.01012994165936559</v>
+        <v>0.008731092652047944</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.005036693133056099</v>
+        <v>0.005339531956741053</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.008224544663099312</v>
+        <v>0.00822854112365044</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.02726633164616481</v>
+        <v>0.03024633103784511</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.02598387601804904</v>
+        <v>0.02609800322857794</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.00936288706997097</v>
+        <v>0.01079456074226015</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.006236956968814902</v>
+        <v>0.00621588587659462</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.02632505902321666</v>
+        <v>0.02594303449228786</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.02145230765553102</v>
+        <v>0.02174244937821338</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.04693637819649777</v>
+        <v>0.05269773124704227</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.03076595382330311</v>
+        <v>0.03004220762144327</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.07409583400023954</v>
+        <v>0.07389266368892826</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.07123159088285211</v>
+        <v>0.06350204035344643</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.04906347468809814</v>
+        <v>0.05075368937303307</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.06277401031796098</v>
+        <v>0.07063233074900035</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1022864355633854</v>
+        <v>0.1047181205700119</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.08437717960943081</v>
+        <v>0.0882228611211</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.03814662340413131</v>
+        <v>0.03984921904529529</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.03655789200922895</v>
+        <v>0.03521129507484878</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.07181806662801216</v>
+        <v>0.07208798205734063</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.0597421426800499</v>
+        <v>0.05999789517800361</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.03217733313943247</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.06700349391587157</v>
+        <v>0.06700349391587156</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.01247560201440047</v>
@@ -1241,7 +1241,7 @@
         <v>0.02440606000310873</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.04829225104047723</v>
+        <v>0.04829225104047722</v>
       </c>
     </row>
     <row r="17">
@@ -1258,34 +1258,34 @@
         <v>0</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.01004581142287916</v>
+        <v>0.01014156233589858</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.01617174679476622</v>
+        <v>0.0183242647319159</v>
       </c>
       <c r="G17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.004236515786962838</v>
+        <v>0.004208464817337526</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.006101715256123316</v>
+        <v>0.006183411240864985</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.01970194264352005</v>
+        <v>0.01935878938665429</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.005260018415442193</v>
+        <v>0.008369624442357003</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.005841950504193665</v>
+        <v>0.005837601490133585</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.008151687058637959</v>
+        <v>0.008641685210904715</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.02699818576156686</v>
+        <v>0.02620509661396956</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1989001504482614</v>
+        <v>0.1906940098037676</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.06158999845141724</v>
+        <v>0.06484862297982215</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.08687198929869995</v>
+        <v>0.1041845154197355</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.199440636646652</v>
+        <v>0.2068852768888435</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.04307503468301955</v>
+        <v>0.04406341268932874</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.03872720417405555</v>
+        <v>0.03521433674615315</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.05213149173334627</v>
+        <v>0.05261071694271809</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.06744524978683153</v>
+        <v>0.06804861166026153</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.06086893543671029</v>
+        <v>0.06182150793439399</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.03301574766136706</v>
+        <v>0.03374322430169026</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.04931645814099767</v>
+        <v>0.04910586283218017</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.09793098064916173</v>
+        <v>0.09471090426286111</v>
       </c>
     </row>
     <row r="19">
@@ -1365,7 +1365,7 @@
         <v>0.02595227261387515</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.07132253024629157</v>
+        <v>0.07132253024629158</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.02052672009555672</v>
@@ -1394,32 +1394,32 @@
         <v>0</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.0322812349428936</v>
+        <v>0.03463260942857736</v>
       </c>
       <c r="F20" s="5" t="inlineStr"/>
       <c r="G20" s="5" t="n">
-        <v>0.006963630480200147</v>
+        <v>0.007666607382014617</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.003242150888903139</v>
+        <v>0.003229428469252109</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.004651965802848979</v>
+        <v>0.005154496191532608</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.03822210263445057</v>
+        <v>0.04062471342836806</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.008746979787219139</v>
+        <v>0.009294033354787545</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.005376329090691133</v>
+        <v>0.00536732040179303</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.02213306718930287</v>
+        <v>0.02043565969699017</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.0302820405631229</v>
+        <v>0.02984452257879515</v>
       </c>
     </row>
     <row r="21">
@@ -1430,38 +1430,38 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.1055074150128909</v>
+        <v>0.1183077978795866</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.06861583545890344</v>
+        <v>0.08228501367724696</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.1944550955977056</v>
+        <v>0.1952911443136748</v>
       </c>
       <c r="F21" s="5" t="inlineStr"/>
       <c r="G21" s="5" t="n">
-        <v>0.04229470264368387</v>
+        <v>0.04322306837030318</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.03297496466472165</v>
+        <v>0.03080568362710108</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.06249628760593707</v>
+        <v>0.06191218182835397</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.1244788635481475</v>
+        <v>0.1265147093954387</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.03922816674403979</v>
+        <v>0.04120606451274041</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.03310670027839122</v>
+        <v>0.03022459248867457</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.07651260995945151</v>
+        <v>0.07514706951336357</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.1011475963923619</v>
+        <v>0.1015563562398871</v>
       </c>
     </row>
     <row r="22">
@@ -1485,7 +1485,7 @@
         <v>0.06594676831036406</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.07832592019017333</v>
+        <v>0.07832592019017334</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.02891802563881061</v>
@@ -1497,7 +1497,7 @@
         <v>0.07071980670762794</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.07764695559740221</v>
+        <v>0.0776469555974022</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>0.03371581769588987</v>
@@ -1520,40 +1520,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.02603601084082386</v>
+        <v>0.02590721971762633</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.0130077851195941</v>
+        <v>0.01352733906051557</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.04683941661010241</v>
+        <v>0.04659887154030128</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.05874948251393156</v>
+        <v>0.0586633293420191</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.018119575973326</v>
+        <v>0.01780940469464522</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.02084919167860266</v>
+        <v>0.02192125533165826</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.05504462336153558</v>
+        <v>0.05199403007194808</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.06352603985685525</v>
+        <v>0.06192037920811311</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.02475921578349058</v>
+        <v>0.02529432169298651</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.0206477972819813</v>
+        <v>0.02002652425694207</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.0556670160022954</v>
+        <v>0.05430354425677739</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.06599615892687932</v>
+        <v>0.06458758173306758</v>
       </c>
     </row>
     <row r="24">
@@ -1564,40 +1564,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.06423492086587394</v>
+        <v>0.06134412784049822</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.03819284924710445</v>
+        <v>0.03803607823580119</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.09285309370122723</v>
+        <v>0.09326668972055564</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1069836123723308</v>
+        <v>0.1058166796904222</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.04216812618822973</v>
+        <v>0.04243338188217155</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.04588208758721619</v>
+        <v>0.04517097683066236</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.0959491762745763</v>
+        <v>0.09057258011929302</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.0951924360577938</v>
+        <v>0.09740201508910969</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.04555578710690705</v>
+        <v>0.04650979204071869</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.03769699359370574</v>
+        <v>0.03744950983767958</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.08454582199238801</v>
+        <v>0.08328989273786</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.09472059715786206</v>
+        <v>0.09158700177065472</v>
       </c>
     </row>
     <row r="25">
@@ -1870,40 +1870,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>1889</v>
+        <v>1829</v>
       </c>
       <c r="D6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>3500</v>
+        <v>3327</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>17514</v>
+        <v>16061</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>954</v>
+        <v>976</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>7240</v>
+        <v>7522</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>10969</v>
+        <v>11256</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>11606</v>
+        <v>12221</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>4223</v>
+        <v>4577</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>8869</v>
+        <v>9151</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>16740</v>
+        <v>16461</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>32149</v>
+        <v>32120</v>
       </c>
     </row>
     <row r="7">
@@ -1914,40 +1914,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>10966</v>
+        <v>11129</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>6630</v>
+        <v>6209</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>14001</v>
+        <v>13234</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>35993</v>
+        <v>34427</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>9632</v>
+        <v>9246</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>22424</v>
+        <v>22132</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>26533</v>
+        <v>26616</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>26028</v>
+        <v>25919</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>16281</v>
+        <v>16937</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>24399</v>
+        <v>23955</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>34697</v>
+        <v>34987</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>55386</v>
+        <v>56470</v>
       </c>
     </row>
     <row r="8">
@@ -2050,40 +2050,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>2793</v>
+        <v>2832</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>3896</v>
+        <v>3744</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>5416</v>
+        <v>5544</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>5299</v>
+        <v>5148</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>2253</v>
+        <v>2464</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>887</v>
+        <v>881</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>6377</v>
+        <v>6591</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>12034</v>
+        <v>11965</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>6970</v>
+        <v>7364</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>5682</v>
+        <v>5095</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>14471</v>
+        <v>14521</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>20066</v>
+        <v>20054</v>
       </c>
     </row>
     <row r="11">
@@ -2094,40 +2094,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>15037</v>
+        <v>15360</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>16197</v>
+        <v>14654</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>17852</v>
+        <v>18146</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>17247</v>
+        <v>17283</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>13215</v>
+        <v>14418</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>7338</v>
+        <v>7854</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>20600</v>
+        <v>20650</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>24685</v>
+        <v>24815</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>23497</v>
+        <v>24133</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>20147</v>
+        <v>19305</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>33263</v>
+        <v>32697</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>37914</v>
+        <v>37304</v>
       </c>
     </row>
     <row r="12">
@@ -2236,10 +2236,10 @@
         <v>0</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1100</v>
+        <v>1119</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>2322</v>
+        <v>2711</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0</v>
@@ -2248,22 +2248,22 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>951</v>
+        <v>961</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>1268</v>
+        <v>1327</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>3059</v>
+        <v>2613</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>5403</v>
+        <v>5099</v>
       </c>
     </row>
     <row r="15">
@@ -2274,40 +2274,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>6291</v>
+        <v>6602</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>5020</v>
+        <v>4852</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>11148</v>
+        <v>10968</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>13262</v>
+        <v>13041</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>6586</v>
+        <v>6246</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>6688</v>
+        <v>6092</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>8006</v>
+        <v>8503</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>7292</v>
+        <v>7963</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>8606</v>
+        <v>8270</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>8877</v>
+        <v>7935</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>14541</v>
+        <v>15001</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>17999</v>
+        <v>18705</v>
       </c>
     </row>
     <row r="16">
@@ -2410,40 +2410,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>1852</v>
+        <v>1929</v>
       </c>
       <c r="D18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>2066</v>
+        <v>2026</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>2530</v>
+        <v>2181</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>949</v>
+        <v>1006</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1824</v>
+        <v>1825</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>5395</v>
+        <v>5985</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>6374</v>
+        <v>6402</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>3871</v>
+        <v>4463</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>2972</v>
+        <v>2962</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>10117</v>
+        <v>9970</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>10621</v>
+        <v>10764</v>
       </c>
     </row>
     <row r="19">
@@ -2454,40 +2454,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>10562</v>
+        <v>11859</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>7835</v>
+        <v>7650</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>13813</v>
+        <v>13775</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>17793</v>
+        <v>15862</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>9246</v>
+        <v>9565</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>13924</v>
+        <v>15667</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>20240</v>
+        <v>20721</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>20698</v>
+        <v>21641</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>15773</v>
+        <v>16477</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>17418</v>
+        <v>16777</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>27600</v>
+        <v>27703</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>29577</v>
+        <v>29704</v>
       </c>
     </row>
     <row r="20">
@@ -2596,34 +2596,34 @@
         <v>0</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>985</v>
+        <v>995</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>1768</v>
+        <v>2004</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>982</v>
+        <v>975</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>907</v>
+        <v>919</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>3926</v>
+        <v>3857</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>981</v>
+        <v>1561</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>1991</v>
+        <v>1989</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>2012</v>
+        <v>2132</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>8331</v>
+        <v>8087</v>
       </c>
     </row>
     <row r="23">
@@ -2634,40 +2634,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>9761</v>
+        <v>9358</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>6711</v>
+        <v>7066</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>8520</v>
+        <v>10218</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>21807</v>
+        <v>22621</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>5921</v>
+        <v>6057</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>8976</v>
+        <v>8162</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>7751</v>
+        <v>7823</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>13438</v>
+        <v>13558</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>11354</v>
+        <v>11532</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>11250</v>
+        <v>11497</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>12169</v>
+        <v>12117</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>30220</v>
+        <v>29226</v>
       </c>
     </row>
     <row r="24">
@@ -2776,32 +2776,32 @@
         <v>0</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>2011</v>
+        <v>2157</v>
       </c>
       <c r="F26" s="6" t="inlineStr"/>
       <c r="G26" s="6" t="n">
-        <v>2031</v>
+        <v>2236</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>978</v>
+        <v>974</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>1001</v>
+        <v>1110</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>6697</v>
+        <v>7118</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>2943</v>
+        <v>3127</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>1937</v>
+        <v>1934</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>6143</v>
+        <v>5672</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>6589</v>
+        <v>6494</v>
       </c>
     </row>
     <row r="27">
@@ -2812,38 +2812,38 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>4729</v>
+        <v>5303</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>4028</v>
+        <v>4831</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>12112</v>
+        <v>12164</v>
       </c>
       <c r="F27" s="6" t="inlineStr"/>
       <c r="G27" s="6" t="n">
-        <v>12333</v>
+        <v>12604</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>9944</v>
+        <v>9290</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>13453</v>
+        <v>13327</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>21810</v>
+        <v>22167</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>13198</v>
+        <v>13863</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>11928</v>
+        <v>10889</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>21236</v>
+        <v>20857</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>22009</v>
+        <v>22098</v>
       </c>
     </row>
     <row r="28">
@@ -2946,40 +2946,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>14540</v>
+        <v>14468</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>9140</v>
+        <v>9505</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>25830</v>
+        <v>25698</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>41783</v>
+        <v>41722</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>14931</v>
+        <v>14675</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>20332</v>
+        <v>21377</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>41245</v>
+        <v>38959</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>57536</v>
+        <v>56082</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>34228</v>
+        <v>34968</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>34644</v>
+        <v>33602</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>72410</v>
+        <v>70637</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>106710</v>
+        <v>104432</v>
       </c>
     </row>
     <row r="31">
@@ -2990,40 +2990,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>35872</v>
+        <v>34257</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>26837</v>
+        <v>26727</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>51205</v>
+        <v>51434</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>76087</v>
+        <v>75257</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>34747</v>
+        <v>34965</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>44744</v>
+        <v>44050</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>71895</v>
+        <v>67866</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>86216</v>
+        <v>88218</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>62979</v>
+        <v>64298</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>63250</v>
+        <v>62835</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>109975</v>
+        <v>108341</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>153155</v>
+        <v>148088</v>
       </c>
     </row>
     <row r="32">
